--- a/Project Outline/Literature Search.xlsx
+++ b/Project Outline/Literature Search.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kaplanint-my.sharepoint.com/personal/anrich_potgieter_aspectworld_com/Documents/Studies/CSPROJ/Dissertation/Unit 1/Project Outline/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kaplanint-my.sharepoint.com/personal/anrich_potgieter_aspectworld_com/Documents/Studies/CSPROJ/Dissertation/Project Outline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{BD516A23-DFB5-4925-81C9-2EA301908337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADB15B50-9CFF-428C-95EE-E1DA1D24ECBF}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="8_{BD516A23-DFB5-4925-81C9-2EA301908337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4047489-3925-4326-8210-51F1B502ED62}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{16526BBB-8D80-4211-8D78-C5AF4F875964}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{16526BBB-8D80-4211-8D78-C5AF4F875964}"/>
   </bookViews>
   <sheets>
     <sheet name="Literature search" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>The proposed topic of my dissertation</t>
   </si>
@@ -146,6 +146,30 @@
   </si>
   <si>
     <t>Wang, G. and Nixon, M. (2021) ‘InterTrust: Towards an Efficient Blockchain Interoperability Architecture with Trusted Services’, in 2021 IEEE International Conference on Blockchain (Blockchain). 2021 IEEE International Conference on Blockchain (Blockchain), pp. 150–159. doi:10.1109/Blockchain53845.2021.00029.</t>
+  </si>
+  <si>
+    <t>Google Scholar</t>
+  </si>
+  <si>
+    <t>"cross-chain protocol"</t>
+  </si>
+  <si>
+    <t>Belchior, R. et al. (2021) ‘A Survey on Blockchain Interoperability: Past, Present, and Future Trends’, ACM Computing Surveys, 54(8), p. 168:1-168:41. doi:10.1145/3471140.</t>
+  </si>
+  <si>
+    <t>Deng, L. et al. (2018) ‘Research on Cross-Chain Technology Based on Sidechain and Hash-Locking’, in Liu, S. et al. (eds) Edge Computing – EDGE 2018. Cham: Springer International Publishing, pp. 144–151. doi:10.1007/978-3-319-94340-4_12.</t>
+  </si>
+  <si>
+    <t>Hardjono, T., Lipton, A. and Pentland, A. (2020) ‘Toward an Interoperability Architecture for Blockchain Autonomous Systems’, IEEE Transactions on Engineering Management, 67(4), pp. 1298–1309. doi:10.1109/TEM.2019.2920154.</t>
+  </si>
+  <si>
+    <t>Johnson, S., Robinson, P. and Brainard, J. (2019) ‘Sidechains and interoperability’, arXiv:1903.04077 [cs] [Preprint]. Available at: http://arxiv.org/abs/1903.04077 (Accessed: 18 March 2022).</t>
+  </si>
+  <si>
+    <t>Schulte, S. et al. (2019) ‘Towards Blockchain Interoperability’, in Di Ciccio, C. et al. (eds) Business Process Management: Blockchain and Central and Eastern Europe Forum. Cham: Springer International Publishing, pp. 3–10. doi:10.1007/978-3-030-30429-4_1.</t>
+  </si>
+  <si>
+    <t>Wang, H., Cen, Y. and Li, X. (2017) ‘Blockchain Router: A Cross-Chain Communication Protocol’, in Proceedings of the 6th International Conference on Informatics, Environment, Energy and Applications. New York, NY, USA: Association for Computing Machinery (IEEA ’17), pp. 94–97. doi:10.1145/3070617.3070634.</t>
   </si>
 </sst>
 </file>
@@ -532,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120959EB-A803-4FCC-BB86-8783F0D6091E}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -756,42 +780,89 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C44" s="6"/>
+    <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="C45" s="6"/>
+    </row>
+    <row r="46" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C46" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C47" s="6"/>
+    </row>
+    <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C48" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C49" s="6"/>
+    </row>
+    <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C50" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C51" s="6"/>
+    </row>
+    <row r="52" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C52" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C53" s="6"/>
+    </row>
+    <row r="54" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C54" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="6"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>12</v>
       </c>
     </row>
@@ -818,8 +889,14 @@
     <hyperlink ref="C39" r:id="rId19" display="https://doi.org/10.1109/ICECCS51672.2020.00021" xr:uid="{CF815A2A-D4DD-4CDC-9F30-C6F5F13DF3CB}"/>
     <hyperlink ref="C41" r:id="rId20" display="https://doi.org/10.1145/3423390.3426724" xr:uid="{D5752673-72D3-4A12-B2C4-844A17CA2B54}"/>
     <hyperlink ref="C43" r:id="rId21" display="https://doi.org/10.1109/Blockchain53845.2021.00029" xr:uid="{7BF43860-41D5-4E54-B3FB-A793029B2637}"/>
+    <hyperlink ref="C44" r:id="rId22" display="https://doi.org/10.1145/3471140" xr:uid="{E5F94828-6AE2-41B9-AD29-31E5797392A3}"/>
+    <hyperlink ref="C46" r:id="rId23" display="https://doi.org/10.1007/978-3-319-94340-4_12" xr:uid="{F873773F-0F08-44CF-92A7-23D2AB6EE38D}"/>
+    <hyperlink ref="C48" r:id="rId24" display="https://doi.org/10.1109/TEM.2019.2920154" xr:uid="{1D488738-6BB0-491E-86AC-A2410935C02E}"/>
+    <hyperlink ref="C50" r:id="rId25" display="http://arxiv.org/abs/1903.04077" xr:uid="{B10F2F2A-17AE-49DE-A901-633E3A6EC2B6}"/>
+    <hyperlink ref="C52" r:id="rId26" display="https://doi.org/10.1007/978-3-030-30429-4_1" xr:uid="{8A616F99-A80C-4B15-890E-9F5CEBA9A185}"/>
+    <hyperlink ref="C54" r:id="rId27" display="https://doi.org/10.1145/3070617.3070634" xr:uid="{8CF75C63-732B-47EC-9EFF-9F61BD66F46A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>